--- a/output_sound/fs_16000_threshold_0.20/results_1s.xlsx
+++ b/output_sound/fs_16000_threshold_0.20/results_1s.xlsx
@@ -512,49 +512,49 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.92</v>
+        <v>6.15</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="C2" t="n">
         <v>0.2</v>
       </c>
       <c r="D2" t="n">
-        <v>14.43</v>
+        <v>12.59</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.92</v>
       </c>
       <c r="F2" t="n">
-        <v>10.07</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="H2" t="n">
-        <v>20.97</v>
+        <v>8.27</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="J2" t="n">
-        <v>3.91</v>
+        <v>3.62</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="L2" t="n">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="N2" t="n">
-        <v>876</v>
+        <v>217.91</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>170.71</v>
       </c>
     </row>
   </sheetData>
